--- a/src/main/java/excel/dataEngine.xlsx
+++ b/src/main/java/excel/dataEngine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagandeepsingh/IdeaProjects/ExcelPro/src/main/java/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagandeepsingh/IdeaProjects/excelPro1/src/main/java/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -38,28 +38,25 @@
     <t>RunMode</t>
   </si>
   <si>
+    <t>Login_02</t>
+  </si>
+  <si>
+    <t>Execute 2</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Validate user able to navigate on site</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Login_02</t>
-  </si>
-  <si>
-    <t>Execute 2</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Navigate</t>
-  </si>
-  <si>
-    <t>Validate user able to navigate on site</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,32 +403,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
